--- a/benchmark/results.xlsx
+++ b/benchmark/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D30B7-0C0E-4A30-8185-AEDA2CD0306C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EC4FC5-8624-43CB-9C8B-51ACD8FD3706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{242DFC86-6987-487F-A7AD-D8C0E4540CCB}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>2c5005fa</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Round 3</t>
+  </si>
+  <si>
+    <t>4f2e82e</t>
   </si>
 </sst>
 </file>
@@ -1982,9 +1985,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$18:$F$21</c:f>
+              <c:f>Sheet1!$F$18:$F$22</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>d928b47c</c:v>
                 </c:pt>
@@ -1996,16 +1999,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>31852eae</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4f2e82e</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$18:$G$21</c:f>
+              <c:f>Sheet1!$G$18:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>13.335714900000001</c:v>
                 </c:pt>
@@ -2017,6 +2023,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.8166666666666673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,9 +2065,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$18:$F$21</c:f>
+              <c:f>Sheet1!$F$18:$F$22</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>d928b47c</c:v>
                 </c:pt>
@@ -2070,16 +2079,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>31852eae</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4f2e82e</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$18:$H$21</c:f>
+              <c:f>Sheet1!$H$18:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.4</c:v>
                 </c:pt>
@@ -2091,6 +2103,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,9 +2145,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$18:$F$21</c:f>
+              <c:f>Sheet1!$F$18:$F$22</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>d928b47c</c:v>
                 </c:pt>
@@ -2144,16 +2159,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>31852eae</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4f2e82e</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$18:$I$21</c:f>
+              <c:f>Sheet1!$I$18:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.419999999999999</c:v>
                 </c:pt>
@@ -2165,6 +2183,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2204,9 +2225,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$18:$F$21</c:f>
+              <c:f>Sheet1!$F$18:$F$22</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>d928b47c</c:v>
                 </c:pt>
@@ -2218,16 +2239,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>31852eae</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4f2e82e</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$18:$J$21</c:f>
+              <c:f>Sheet1!$J$18:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>27.157843633333332</c:v>
                 </c:pt>
@@ -2239,6 +2263,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.1834875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.156319999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4717,7 +4744,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>46360</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>35798</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4747,13 +4774,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3578</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>41676</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>34250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4782,15 +4809,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3736</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>4696</xdr:rowOff>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>40856</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>16463</xdr:rowOff>
+      <xdr:colOff>294856</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>22814</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5115,10 +5142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861D1B72-987A-4CF5-A621-7152B1247B46}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5628,185 +5655,247 @@
       </c>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F22" s="2" t="s">
-        <v>9</v>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>7.41</v>
+      </c>
+      <c r="H22">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I22">
+        <v>1.2</v>
+      </c>
+      <c r="J22">
+        <f>11+ 156320000/1000000000</f>
+        <v>11.156319999999999</v>
       </c>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F23" t="str">
-        <f>F18</f>
-        <v>d928b47c</v>
-      </c>
-      <c r="G23" s="3">
-        <f>G18/G$18</f>
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" ref="H23:J23" si="5">H18/H$18</f>
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
+      <c r="F23" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F24" t="str">
-        <f t="shared" ref="F24:F26" si="6">F19</f>
-        <v>e61ac2c4</v>
+        <f>F18</f>
+        <v>d928b47c</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" ref="G24:J24" si="7">G19/G$18</f>
-        <v>0.8533975257674411</v>
+        <f>G18/G$18</f>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="7"/>
-        <v>0.85357142857142865</v>
+        <f t="shared" ref="H24:J24" si="5">H18/H$18</f>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="7"/>
-        <v>0.96863468634686367</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="7"/>
-        <v>0.87634993857864107</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F25" t="str">
+        <f>F19</f>
+        <v>e61ac2c4</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" ref="G25:J25" si="6">G19/G$18</f>
+        <v>0.8533975257674411</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="6"/>
-        <v>2c5005fa</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" ref="G25:J25" si="8">G20/G$18</f>
-        <v>0.84046263116597764</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="8"/>
-        <v>0.87738095238095237</v>
+        <v>0.85357142857142865</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="8"/>
-        <v>0.95448954489544902</v>
+        <f t="shared" si="6"/>
+        <v>0.96863468634686367</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="8"/>
-        <v>0.88679218762077738</v>
+        <f t="shared" si="6"/>
+        <v>0.87634993857864107</v>
       </c>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F26" t="str">
-        <f t="shared" si="6"/>
-        <v>31852eae</v>
+        <f>F20</f>
+        <v>2c5005fa</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" ref="G26:J26" si="9">G21/G$18</f>
-        <v>0.58614530419112865</v>
+        <f t="shared" ref="G26:J26" si="7">G20/G$18</f>
+        <v>0.84046263116597764</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="9"/>
-        <v>0.52023809523809528</v>
+        <f t="shared" si="7"/>
+        <v>0.87738095238095237</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="9"/>
-        <v>0.36900369003690042</v>
+        <f t="shared" si="7"/>
+        <v>0.95448954489544902</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="9"/>
-        <v>0.5222611813918574</v>
+        <f t="shared" si="7"/>
+        <v>0.88679218762077738</v>
       </c>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F27" s="2" t="s">
-        <v>11</v>
+      <c r="F27" t="str">
+        <f>F21</f>
+        <v>31852eae</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ref="G27:J28" si="8">G21/G$18</f>
+        <v>0.58614530419112865</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="8"/>
+        <v>0.52023809523809528</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="8"/>
+        <v>0.36900369003690042</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5222611813918574</v>
       </c>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F28" t="str">
-        <f>F23</f>
-        <v>d928b47c</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" t="s">
-        <v>10</v>
+        <f>F22</f>
+        <v>4f2e82e</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="8"/>
+        <v>0.55565075105197392</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="8"/>
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="8"/>
+        <v>0.22140221402214025</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="8"/>
+        <v>0.41079550168360263</v>
       </c>
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F29" t="str">
-        <f>F24</f>
-        <v>e61ac2c4</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" ref="G29:J31" si="10">1-G24</f>
-        <v>0.1466024742325589</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="10"/>
-        <v>0.14642857142857135</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="10"/>
-        <v>3.1365313653136329E-2</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="10"/>
-        <v>0.12365006142135893</v>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F30" t="str">
-        <f>F25</f>
-        <v>2c5005fa</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="10"/>
-        <v>0.15953736883402236</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="10"/>
-        <v>0.12261904761904763</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="10"/>
-        <v>4.5510455104550984E-2</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="10"/>
-        <v>0.11320781237922262</v>
+        <f>F24</f>
+        <v>d928b47c</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F31" t="str">
+        <f>F25</f>
+        <v>e61ac2c4</v>
+      </c>
+      <c r="G31" s="4">
+        <f>1-G25</f>
+        <v>0.1466024742325589</v>
+      </c>
+      <c r="H31" s="4">
+        <f>1-H25</f>
+        <v>0.14642857142857135</v>
+      </c>
+      <c r="I31" s="4">
+        <f>1-I25</f>
+        <v>3.1365313653136329E-2</v>
+      </c>
+      <c r="J31" s="4">
+        <f>1-J25</f>
+        <v>0.12365006142135893</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F32" t="str">
         <f>F26</f>
+        <v>2c5005fa</v>
+      </c>
+      <c r="G32" s="4">
+        <f>1-G26</f>
+        <v>0.15953736883402236</v>
+      </c>
+      <c r="H32" s="4">
+        <f>1-H26</f>
+        <v>0.12261904761904763</v>
+      </c>
+      <c r="I32" s="4">
+        <f>1-I26</f>
+        <v>4.5510455104550984E-2</v>
+      </c>
+      <c r="J32" s="4">
+        <f>1-J26</f>
+        <v>0.11320781237922262</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F33" t="str">
+        <f>F27</f>
         <v>31852eae</v>
       </c>
-      <c r="G31" s="4">
-        <f t="shared" si="10"/>
+      <c r="G33" s="4">
+        <f>1-G27</f>
         <v>0.41385469580887135</v>
       </c>
-      <c r="H31" s="4">
-        <f t="shared" si="10"/>
+      <c r="H33" s="4">
+        <f>1-H27</f>
         <v>0.47976190476190472</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="10"/>
+      <c r="I33" s="4">
+        <f>1-I27</f>
         <v>0.63099630996309952</v>
       </c>
-      <c r="J31" s="4">
-        <f t="shared" si="10"/>
+      <c r="J33" s="4">
+        <f>1-J27</f>
         <v>0.4777388186081426</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F34" t="str">
+        <f>F28</f>
+        <v>4f2e82e</v>
+      </c>
+      <c r="G34" s="4">
+        <f>1-G28</f>
+        <v>0.44434924894802608</v>
+      </c>
+      <c r="H34" s="4">
+        <f>1-H28</f>
+        <v>0.6964285714285714</v>
+      </c>
+      <c r="I34" s="4">
+        <f>1-I28</f>
+        <v>0.77859778597785978</v>
+      </c>
+      <c r="J34" s="4">
+        <f>1-J28</f>
+        <v>0.58920449831639732</v>
       </c>
     </row>
   </sheetData>
